--- a/bhp/lims/resources/results_ranges.xlsx
+++ b/bhp/lims/resources/results_ranges.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1691" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1691" uniqueCount="130">
   <si>
     <t>keyword</t>
   </si>
@@ -44,10 +44,10 @@
     <t>age_to</t>
   </si>
   <si>
-    <t>panic_high</t>
-  </si>
-  <si>
-    <t>panic_low</t>
+    <t>maxpanic</t>
+  </si>
+  <si>
+    <t>minpanic</t>
   </si>
   <si>
     <t>ALB</t>
@@ -408,9 +408,6 @@
   </si>
   <si>
     <t>366d</t>
-  </si>
-  <si>
-    <t> MONO1</t>
   </si>
 </sst>
 </file>
@@ -571,7 +568,7 @@
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="TableStyleLight1" xfId="20" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in TableStyleLight1" xfId="20" builtinId="54" customBuiltin="true"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -583,8 +580,8 @@
   </sheetPr>
   <dimension ref="A1:J335"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A157" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A253" activeCellId="0" sqref="A253"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L12" activeCellId="0" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -7037,7 +7034,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="242" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="9" t="s">
         <v>97</v>
       </c>
@@ -7951,7 +7948,7 @@
     </row>
     <row r="280" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="9" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="B280" s="9" t="s">
         <v>53</v>
@@ -7975,7 +7972,7 @@
     </row>
     <row r="281" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="9" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="B281" s="9" t="s">
         <v>53</v>
@@ -7999,7 +7996,7 @@
     </row>
     <row r="282" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="9" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="B282" s="9" t="s">
         <v>53</v>
@@ -8023,7 +8020,7 @@
     </row>
     <row r="283" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="9" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="B283" s="9" t="s">
         <v>53</v>
@@ -8047,7 +8044,7 @@
     </row>
     <row r="284" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="9" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="B284" s="9" t="s">
         <v>53</v>
@@ -8071,7 +8068,7 @@
     </row>
     <row r="285" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="9" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="B285" s="9" t="s">
         <v>53</v>
@@ -8095,7 +8092,7 @@
     </row>
     <row r="286" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="9" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="B286" s="9" t="s">
         <v>53</v>

--- a/bhp/lims/resources/results_ranges.xlsx
+++ b/bhp/lims/resources/results_ranges.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="621" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="572" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Analysis Specifications" sheetId="1" state="visible" r:id="rId2"/>
@@ -16,13 +16,14 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Analysis Specifications'!$A$340:$A$349</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Analysis Specifications'!$A$340:$A$349</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Analysis Specifications'!$A$340:$A$349</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Analysis Specifications'!$A$340:$A$349</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1784" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1789" uniqueCount="154">
   <si>
     <t>keyword</t>
   </si>
@@ -482,6 +483,9 @@
   <si>
     <t>BILTS</t>
   </si>
+  <si>
+    <t>AUVL</t>
+  </si>
 </sst>
 </file>
 
@@ -655,7 +659,7 @@
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Excel Built-in TableStyleLight1" xfId="20" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in TableStyleLight1" xfId="20" builtinId="54" customBuiltin="true"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -669,10 +673,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z349"/>
+  <dimension ref="A1:Z350"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A316" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B348" activeCellId="0" sqref="B348"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A310" colorId="64" zoomScale="78" zoomScaleNormal="78" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C351" activeCellId="0" sqref="C351"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -683,20 +687,7 @@
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="8.8265306122449"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="2" width="15"/>
     <col collapsed="false" hidden="false" max="10" min="6" style="2" width="8.8265306122449"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="3" width="13.6632653061225"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="3" width="12.8316326530612"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="3" width="14.5"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="3" width="15.1632653061224"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="3" width="11.8367346938776"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="3" width="12.5"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="3" width="14.6581632653061"/>
-    <col collapsed="false" hidden="false" max="20" min="19" style="3" width="18.8367346938776"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="3" width="20.6632653061224"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="3" width="19.6632653061224"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="3" width="20.1683673469388"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="3" width="21.1683673469388"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="3" width="16"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="3" width="19.3316326530612"/>
+    <col collapsed="false" hidden="false" max="26" min="11" style="3" width="8.6734693877551"/>
     <col collapsed="false" hidden="false" max="1025" min="27" style="3" width="8.8265306122449"/>
   </cols>
   <sheetData>
@@ -17174,7 +17165,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="348" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="8" t="s">
         <v>152</v>
       </c>
@@ -17224,6 +17215,32 @@
       </c>
       <c r="I349" s="2" t="n">
         <v>75</v>
+      </c>
+    </row>
+    <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A350" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B350" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C350" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D350" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="F350" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G350" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H350" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I350" s="2" t="n">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
